--- a/skelton/設定/レコード追加リスト.xlsx
+++ b/skelton/設定/レコード追加リスト.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="媒体一覧" sheetId="1" r:id="rId1"/>

--- a/skelton/設定/レコード追加リスト.xlsx
+++ b/skelton/設定/レコード追加リスト.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>媒体コード</t>
   </si>
@@ -154,6 +154,27 @@
     <rPh sb="9" eb="11">
       <t>ツイカ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S000</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>宮内一穂ラバーストラップ</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤウチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>みやうちかずほらばーすとらっぷ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -675,17 +696,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="28.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -714,6 +737,26 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>205602</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
